--- a/cypress/downloads/relatorio_doacoes.xlsx
+++ b/cypress/downloads/relatorio_doacoes.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -893,6 +893,358 @@
         </is>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>sam.abreugouveia@gmail.com</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>(81) 99899-1917</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Plástico</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Gostaria de doar plástico</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>26/11/2024 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Samuel</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>sam.abreugouveia@gmail.com</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>(81) 99899-1917</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Plástico</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Eu gostaria de doar plástico</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>26/11/2024 17:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>26/11/2024 17:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>26/11/2024 17:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>26/11/2024 17:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>26/11/2024 17:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>26/11/2024 17:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>26/11/2024 17:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>26/11/2024 18:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>26/11/2024 18:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>26/11/2024 18:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cypress/downloads/relatorio_doacoes.xlsx
+++ b/cypress/downloads/relatorio_doacoes.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1245,6 +1245,134 @@
         </is>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>aaaaa</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>aaa@cesar.school</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>34567890</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>ff</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>28/11/2024 17:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>28/11/2024 23:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>28/11/2024 23:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>28/11/2024 23:39</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cypress/downloads/relatorio_doacoes.xlsx
+++ b/cypress/downloads/relatorio_doacoes.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1373,6 +1373,294 @@
         </is>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>28/11/2024 23:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>28/11/2024 23:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>28/11/2024 23:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>29/11/2024 00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>29/11/2024 00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>29/11/2024 00:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>29/11/2024 00:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>29/11/2024 00:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Doador</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>doador@gmail.com</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>(81) 99999-9999</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Resíduos têxteis</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Gostaria de fazer uma doação de resíduos têxteis para a confecção de novos brinquedos.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>29/11/2024 00:15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
